--- a/biology/Botanique/Œnanthe_fistuleuse/Œnanthe_fistuleuse.xlsx
+++ b/biology/Botanique/Œnanthe_fistuleuse/Œnanthe_fistuleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_fistuleuse</t>
+          <t>Œnanthe_fistuleuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Œnanthe fistuleuse (Oenanthe fistulosa L.) est une espèce de plantes herbacées vivaces ou bisannuelles de la famille des Apiacées, que l'on peut rencontrer dans les prairies longuement inondables et les roselières. Son aire de répartition est eurasiatique. Elle est en régression du fait de la diminution des surfaces en zone humide ou leur dégradation. Comme toutes les espèces du genre, elle est toxique par ingestion.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_fistuleuse</t>
+          <t>Œnanthe_fistuleuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : 0,3 à 1 m.
-Plante glabre, d'un vert glauque, émettant des stolons aériens blanchâtres à l'aisselle des feuilles caulinaires inférieures[1].
+Plante glabre, d'un vert glauque, émettant des stolons aériens blanchâtres à l'aisselle des feuilles caulinaires inférieures.
 Tiges et pétioles élargis et fistuleux (creux).
-Feuilles à contour général allongé, 1-2-(3) fois divisées, à derniers segments peu nombreux, assez courts et étroits. Feuilles basales rapidement flétries[2].
+Feuilles à contour général allongé, 1-2-(3) fois divisées, à derniers segments peu nombreux, assez courts et étroits. Feuilles basales rapidement flétries.
 Ombelles à rayons très peu nombreux (ombelle terminale : 2-4 rayons, les latérales à 3-7), à bractées absentes ou réduites.
 Ombellules très denses, à 7-16 bractéoles, à rayons très élargis à maturité et formant alors des boules de fruits continus.
 Fleurs blanches ou rosées, les centrales bisexuées et fertiles, les externes mâles et rayonnantes, apparaissant de juin à septembre.
 Fruits surmontés des styles dressés, raides et allongés, munis de cavités remplies d'air (adaptation à l'hydrochorie).
-Racines munies de tubercules fusiformes, colonisées par des mycorhizes jouant un rôle  dans l'absorption des éléments nutritifs et constituant une adaptation aux changements rapides de régime hydrologique[3].                       
+Racines munies de tubercules fusiformes, colonisées par des mycorhizes jouant un rôle  dans l'absorption des éléments nutritifs et constituant une adaptation aux changements rapides de régime hydrologique.                       
 </t>
         </is>
       </c>
